--- a/prototypingNumber.xlsx
+++ b/prototypingNumber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montanaedu-my.sharepoint.com/personal/b42g833_msu_montana_edu/Documents/Documents/Classes/CSCI 443 UI Design/Stage 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="11_F25DC773A252ABDACC104860095C78F25BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DAE03156-F400-4408-A6BC-283182EC9839}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC104860095C78F25BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2295898B-5E2E-4219-A8BA-5C48C43DD597}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8790" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Was sign in simplistic or easy to use</t>
   </si>
@@ -78,6 +78,24 @@
   </si>
   <si>
     <t>Total Score</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Morgan</t>
+  </si>
+  <si>
+    <t>Kari</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Libien </t>
   </si>
 </sst>
 </file>
@@ -137,6 +155,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,7 +424,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:A1048576"/>
@@ -410,56 +432,59 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="19" width="18.85546875" customWidth="1"/>
+    <col min="1" max="20" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>5</v>
+    <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -497,18 +522,21 @@
       <c r="M2" s="1">
         <v>5</v>
       </c>
-      <c r="N2">
-        <f>SUM(A2:M2)</f>
+      <c r="N2" s="1">
+        <v>5</v>
+      </c>
+      <c r="O2">
+        <f>SUM(B2:N2)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>5</v>
-      </c>
       <c r="C3" s="1">
         <v>5</v>
       </c>
@@ -542,23 +570,26 @@
       <c r="M3" s="1">
         <v>5</v>
       </c>
-      <c r="N3">
-        <f>SUM(A3:M3)</f>
+      <c r="N3" s="1">
+        <v>5</v>
+      </c>
+      <c r="O3">
+        <f>SUM(B3:N3)</f>
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="1">
-        <v>5</v>
-      </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" s="1">
         <v>5</v>
@@ -573,7 +604,7 @@
         <v>5</v>
       </c>
       <c r="I4" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1">
         <v>4</v>
@@ -582,19 +613,22 @@
         <v>4</v>
       </c>
       <c r="L4" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M4" s="1">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <f>SUM(A4:M4)</f>
+        <v>5</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <f>SUM(B4:N4)</f>
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>5</v>
+    <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -632,14 +666,17 @@
       <c r="M5" s="1">
         <v>5</v>
       </c>
-      <c r="N5">
-        <f>SUM(A5:M5)</f>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5">
+        <f>SUM(B5:N5)</f>
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -651,34 +688,37 @@
         <v>4</v>
       </c>
       <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
         <v>3</v>
       </c>
-      <c r="F6" s="1">
-        <v>4</v>
-      </c>
       <c r="G6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I6" s="1">
         <v>3</v>
       </c>
       <c r="J6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6" s="1">
+        <v>4</v>
+      </c>
+      <c r="L6" s="1">
         <v>3</v>
       </c>
-      <c r="L6" s="1">
-        <v>4</v>
-      </c>
       <c r="M6" s="1">
         <v>4</v>
       </c>
-      <c r="N6">
-        <f>SUM(A6:M6)</f>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f>SUM(B6:N6)</f>
         <v>49</v>
       </c>
     </row>

--- a/prototypingNumber.xlsx
+++ b/prototypingNumber.xlsx
@@ -427,7 +427,7 @@
   <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/prototypingNumber.xlsx
+++ b/prototypingNumber.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://montanaedu-my.sharepoint.com/personal/b42g833_msu_montana_edu/Documents/Documents/Classes/CSCI 443 UI Design/Stage 5/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC104860095C78F25BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2295898B-5E2E-4219-A8BA-5C48C43DD597}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_F25DC773A252ABDACC104860095C78F25BDE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8159D935-8200-4279-AFBF-B857E9DA5725}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-8790" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Was sign in simplistic or easy to use</t>
   </si>
@@ -75,9 +75,6 @@
   </si>
   <si>
     <t>Was the app visually appealing?</t>
-  </si>
-  <si>
-    <t>Total Score</t>
   </si>
   <si>
     <t>First Name</t>
@@ -426,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -437,7 +434,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -478,13 +475,11 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <v>5</v>
@@ -524,15 +519,11 @@
       </c>
       <c r="N2" s="1">
         <v>5</v>
-      </c>
-      <c r="O2">
-        <f>SUM(B2:N2)</f>
-        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -572,15 +563,11 @@
       </c>
       <c r="N3" s="1">
         <v>5</v>
-      </c>
-      <c r="O3">
-        <f>SUM(B3:N3)</f>
-        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>2</v>
@@ -620,15 +607,11 @@
       </c>
       <c r="N4" s="1">
         <v>4</v>
-      </c>
-      <c r="O4">
-        <f>SUM(B4:N4)</f>
-        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -668,15 +651,11 @@
       </c>
       <c r="N5" s="1">
         <v>5</v>
-      </c>
-      <c r="O5">
-        <f>SUM(B5:N5)</f>
-        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -716,10 +695,6 @@
       </c>
       <c r="N6" s="1">
         <v>4</v>
-      </c>
-      <c r="O6">
-        <f>SUM(B6:N6)</f>
-        <v>49</v>
       </c>
     </row>
   </sheetData>
